--- a/web/admin/downloads/123123111--20171103/123123111--20171103--2.xlsx
+++ b/web/admin/downloads/123123111--20171103/123123111--20171103--2.xlsx
@@ -356,7 +356,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -375,11 +375,6 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>12123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3">
         <v>1231</v>
       </c>
     </row>
